--- a/medicine/Mort/The_Good_Place/The_Good_Place.xlsx
+++ b/medicine/Mort/The_Good_Place/The_Good_Place.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Good Place est une série télévisée américaine en 52 épisodes de 22 minutes créée par Michael Schur[1], diffusée entre le 19 septembre 2016[2] et le 30 janvier 2020 sur le réseau NBC[3] aux États-Unis et sur le réseau Global[4] au Canada.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Good Place est une série télévisée américaine en 52 épisodes de 22 minutes créée par Michael Schur, diffusée entre le 19 septembre 2016 et le 30 janvier 2020 sur le réseau NBC aux États-Unis et sur le réseau Global au Canada.
 Dans tous les pays francophones, elle a été diffusée entre le 21 septembre 2017 et le 31 janvier 2020 sur le service Netflix.
-Au Québec, elle est également rediffusée à la télévision depuis le 26 février 2020 sur Elle Fictions sous le titre Une chipie au paradis[5].
+Au Québec, elle est également rediffusée à la télévision depuis le 26 février 2020 sur Elle Fictions sous le titre Une chipie au paradis.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À sa mort, Eleanor Shellstrop (Kristen Bell) se retrouve au Bon Endroit (en anglais : The Good Place), là où seules les personnes exceptionnelles aux âmes pures arrivent, les autres étant envoyées au Mauvais Endroit. Chaque nouvel arrivant est logé dans une maison idéale, aménagée selon ses goûts, puis fait connaissance avec son âme sœur. Problème, Eleanor n'est pas vraiment une bonne personne et découvre qu'elle a été envoyée au Bon Endroit par erreur. Et peu après son arrivée, des choses étranges se produisent...
 </t>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Kristen Bell (VF : Laura Préjean) : Eleanor Shellstrop
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kristen Bell (VF : Laura Préjean) : Eleanor Shellstrop
 Ted Danson (VF : Jean-Louis Faure) : Michael
 Jameela Jamil (VF : Charlotte Marin) : Tahani Al Jamil
 William Jackson Harper (VF : Jean-Baptiste Anoumon) : Chidi Anagonye
@@ -559,8 +578,43 @@
 			Jameela Jamil dans le rôle de Tahani Al Jamil.
 			Manny Jacinto dans le rôle de Jason Mendoza.
 			D'Arcy Carden dans le rôle de Janet.
-Acteurs récurrents et secondaires
-Tiya Sircar (VF : Capucine Lespinas) : « Vraie » Eleanor Shellstrop / Vicky / Denise
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The_Good_Place</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Good_Place</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents et secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tiya Sircar (VF : Capucine Lespinas) : « Vraie » Eleanor Shellstrop / Vicky / Denise
 Marc Evan Jackson (VF : Renaud Marx) : Shawn
 Josh Siegal (VF : Laurent Morteau) : Glenn (saison 1, invité saisons 2, 3 et 4)
 Seth Morris (VF : Vincent Violette) : Wallace (saison 1, invité saison 2)
@@ -580,49 +634,7 @@
 Société de doublage : Deluxe Media Paris
 Direction artistique : France Rombaut
 Adaptation des dialogues : Sandra Devonssay, Valérie Marchand, Pauline Beauruel, Alexa Donda et Marie Causse
- Source et légende : version française (VF) sur RS Doublage[6] et Doublage Séries Database[7]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>The_Good_Place</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Good_Place</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Développement
-Le 13 août 2015, NBC commande la série avec treize épisodes[8], pour la saison 2016 / 2017.
-Le 12 janvier 2016, le réseau NBC annonce l'arrivée de Kristen Bell et de Ted Danson, au sein de la distribution[9].
-Le 15 mai 2016, lors des upfronts 2016, NBC annonce la diffusion de la série pour l'automne 2016[10].
-Le 15 juin 2016, NBC planifie la diffusion des deux premiers épisodes le lundi 19 septembre 2016 après The Voice, avant de rejoindre le jeudi 22 septembre sa case régulière[11].
-Le 30 janvier 2017, la série est renouvelée pour une deuxième saison de treize épisodes[12].
-Le 21 novembre 2017, la série est renouvelée pour une troisième saison[13] de treize épisodes[14].
-Le 4 décembre 2018, la série est renouvelée pour une quatrième saison[15], qui sera la dernière[16]. Pour la finale, une scène est tournée sur la terrasse du café Les Deux Magots à Paris le 30 septembre 2019[17].
-Casting
-Les rôles principaux ont été attribués dans cet ordre : Kristen Bell[18] puis Ted Danson[18].
-Le 11 février 2016, William Jackson Harper rejoint la distribution principale dans le rôle de Chidi Anagonye[19]. Le 25 février 2016, Jameela Jamil rejoint la série dans le rôle de Tahani[20].
-Le 3 mars 2016, Manny Jacinto obtient le rôle régulier de Jason[21]. Puis le 14 mars 2016, D'Arcy Carden est annoncée dans le rôle de Janet Della-Denunzio[22].
-</t>
+ Source et légende : version française (VF) sur RS Doublage et Doublage Séries Database</t>
         </is>
       </c>
     </row>
@@ -647,12 +659,100 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 13 août 2015, NBC commande la série avec treize épisodes, pour la saison 2016 / 2017.
+Le 12 janvier 2016, le réseau NBC annonce l'arrivée de Kristen Bell et de Ted Danson, au sein de la distribution.
+Le 15 mai 2016, lors des upfronts 2016, NBC annonce la diffusion de la série pour l'automne 2016.
+Le 15 juin 2016, NBC planifie la diffusion des deux premiers épisodes le lundi 19 septembre 2016 après The Voice, avant de rejoindre le jeudi 22 septembre sa case régulière.
+Le 30 janvier 2017, la série est renouvelée pour une deuxième saison de treize épisodes.
+Le 21 novembre 2017, la série est renouvelée pour une troisième saison de treize épisodes.
+Le 4 décembre 2018, la série est renouvelée pour une quatrième saison, qui sera la dernière. Pour la finale, une scène est tournée sur la terrasse du café Les Deux Magots à Paris le 30 septembre 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The_Good_Place</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Good_Place</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Casting</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rôles principaux ont été attribués dans cet ordre : Kristen Bell puis Ted Danson.
+Le 11 février 2016, William Jackson Harper rejoint la distribution principale dans le rôle de Chidi Anagonye. Le 25 février 2016, Jameela Jamil rejoint la série dans le rôle de Tahani.
+Le 3 mars 2016, Manny Jacinto obtient le rôle régulier de Jason. Puis le 14 mars 2016, D'Arcy Carden est annoncée dans le rôle de Janet Della-Denunzio.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The_Good_Place</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Good_Place</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première saison (2016-2017)
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Première saison (2016-2017)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tout va bien (Everything Is Fine)
 Je voulais voler (Flying)
 Tahani Al-Jamil (Tahani Al-Jamil)
@@ -666,9 +766,44 @@
 Ma motivation (What's My Motivation)
 Mindy St. Claire (Mindy St. Claire)
 Le Pari de Michael (Michael's Gambit)
-Deuxième saison (2017-2018)
-Elle est diffusée du 20 septembre 2017[23] au 1er février 2018.
-Note : en version originale et francophone, le premier épisode de cette saison a été diffusé sous forme d'un épisode de 42 minutes mais celui-ci est bien comptabilisé comme un double épisode[24].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The_Good_Place</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Good_Place</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2017-2018)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est diffusée du 20 septembre 2017 au 1er février 2018.
+Note : en version originale et francophone, le premier épisode de cette saison a été diffusé sous forme d'un épisode de 42 minutes mais celui-ci est bien comptabilisé comme un double épisode.
 Tout va bien !, première partie (Everything Is Great! Part One)
 Tout va bien !, deuxième partie (Everything Is Great! Part Two)
 Résolution danse danse (Dance Dance Resolution)
@@ -682,8 +817,43 @@
 Rhonda, Diana, Jake, et Trent (Rhonda, Diana, Jake, and Trent)
 Le Burrito (The Burrito)
 D'autres projets (Somewhere Else)
-Troisième saison (2018-2019)
-Elle a été diffusée à partir du 27 septembre 2018[25] par un double épisode, et s'est conclue le 24 janvier 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The_Good_Place</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Good_Place</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Troisième saison (2018-2019)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été diffusée à partir du 27 septembre 2018 par un double épisode, et s'est conclue le 24 janvier 2019.
 Tout est top, première partie (Everything Is Bonzer! (Part 1))
 Tout est top, deuxième partie (Everything Is Bonzer! (Part 2))
 Le Club des intellos (The Brainy Bunch)
@@ -697,8 +867,43 @@
 Le Livre des Dougs (The Book Of Dougs)
 Chidi voit le couteau du temps (Chidi Sees The Time-Knife)
 Pandemonium (Pandemonium)
-Quatrième saison (2019-2020)
-Cette dernière saison est diffusée entre le 27 septembre 2019[26] et le 30 janvier 2020. Le dernier épisode diffusé sur NBC/Global a été accompagné d'une émission spéciale animée par Seth Meyers[27].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The_Good_Place</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Good_Place</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Quatrième saison (2019-2020)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette dernière saison est diffusée entre le 27 septembre 2019 et le 30 janvier 2020. Le dernier épisode diffusé sur NBC/Global a été accompagné d'une émission spéciale animée par Seth Meyers.
 Une fille qui vient d’Arizona, première partie (A Girl from Arizona (Part 1))
 Une fille qui vient d’Arizona, deuxième partie (A Girl From Arizona (Part 2))
 Chidétendu (Chillaxing)
@@ -716,112 +921,197 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>The_Good_Place</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Good_Place</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The_Good_Place</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Good_Place</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Univers de la série</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Personnages
-Eleanor Shellstrop, après avoir entendu le résumé de sa vie, qui n'est pas le bon, comprend qu'elle n'aurait pas dû être admise au Bon Endroit. Elle demande alors de l’aide à Chidi pour ne pas se faire démasquer.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Eleanor Shellstrop, après avoir entendu le résumé de sa vie, qui n'est pas le bon, comprend qu'elle n'aurait pas dû être admise au Bon Endroit. Elle demande alors de l’aide à Chidi pour ne pas se faire démasquer.
 Michael est l'architecte du quartier dans lequel évoluent Eleanor, Chidi, Tahani et Jason. Il s'occupe de leur accueil au Bon Endroit avec l'aide de Janet.
 Tahani Al Jamil est une femme très mondaine qui a dédié sa vie aux œuvres caritatives. Elle est l'âme sœur de Jason.
 Chidi Anagonye était professeur d'éthique et de morale avant d'arriver au Bon Endroit. Il est un être très angoissé qui n'arrive pas à faire de choix. Il est l'âme sœur d'Eleanor et va tout faire pour l'aider à trouver sa place.
 Jason Mendoza arrive au Bon Endroit sous le nom de Jianyu Li, un moine bouddhiste ayant fait vœu de silence (silence monastique). Il est l'âme sœur de Tahani. En réalité, il vient de Jacksonville (Floride) et a lui aussi été envoyé au Bon Endroit par erreur.
-Janet est un être humanoïde possédant une immense base de données, sur la vie des résidents et toutes les questions de l'univers. Elle n'est ni un robot, ni une femme, comme elle le rappelle à chaque fois qu'elle est nommée comme tel.
-Philosophie
-La série s'inspire de nombreuses philosophies, dont celle de Kant, notamment à travers les dialogues de Chidi, professeur d'éthique et de morale, qui a écrit une thèse sur le philosophe. Elle évoque aussi le particularisme moral de Jonathan Dancy à travers une métaphore filée[28].
+Janet est un être humanoïde possédant une immense base de données, sur la vie des résidents et toutes les questions de l'univers. Elle n'est ni un robot, ni une femme, comme elle le rappelle à chaque fois qu'elle est nommée comme tel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>The_Good_Place</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Good_Place</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Univers de la série</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Philosophie</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série s'inspire de nombreuses philosophies, dont celle de Kant, notamment à travers les dialogues de Chidi, professeur d'éthique et de morale, qui a écrit une thèse sur le philosophe. Elle évoque aussi le particularisme moral de Jonathan Dancy à travers une métaphore filée.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>The_Good_Place</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Good_Place</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>The_Good_Place</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Good_Place</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Audiences
-Après un bon démarrage (8,04 millions de téléspectateurs pour le double épisode pilote), les audiences de la première saison de la série ont rapidement chuté, se stabilisant autour des 4 millions de téléspectateurs. La première saison, diffusée le jeudi soir, a ainsi réuni en moyenne 4,7 millions de téléspectateurs, avec un score de 1,4 % sur la cible commerciale privilégiée des annonceurs, se classant dans la moyenne des séries de NBC[29].
-La deuxième saison s'inscrit dans la lignée de la première en termes d'audiences[29].
-Résultats critiques
-Première saison
-Le site Rotten Tomatoes a attribué une note de 7,91⁄10 (soit 92 % (sur 65 critiques[30]).
-Le site Metacritic a donné une note de 78⁄100 (sur 32 critiques[31]).
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Audiences</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après un bon démarrage (8,04 millions de téléspectateurs pour le double épisode pilote), les audiences de la première saison de la série ont rapidement chuté, se stabilisant autour des 4 millions de téléspectateurs. La première saison, diffusée le jeudi soir, a ainsi réuni en moyenne 4,7 millions de téléspectateurs, avec un score de 1,4 % sur la cible commerciale privilégiée des annonceurs, se classant dans la moyenne des séries de NBC.
+La deuxième saison s'inscrit dans la lignée de la première en termes d'audiences.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The_Good_Place</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Good_Place</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Résultats critiques</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Première saison
+Le site Rotten Tomatoes a attribué une note de 7,91⁄10 (soit 92 % (sur 65 critiques).
+Le site Metacritic a donné une note de 78⁄100 (sur 32 critiques).
 Deuxième saison
-Le site Rotten Tomatoes a attribué une note de 8,95⁄10 (soit 100 % (sur 55 critiques[32]).
-Le site Metacritic a donné une note de 87⁄100 (sur 10 critiques[33]).
+Le site Rotten Tomatoes a attribué une note de 8,95⁄10 (soit 100 % (sur 55 critiques).
+Le site Metacritic a donné une note de 87⁄100 (sur 10 critiques).
 Troisième saison
-Le site Rotten Tomatoes a attribué une note de 8,79⁄10 (soit 100 % (sur 38 critiques[34]).
-Le site Metacritic a donné une note de 96⁄100 (sur 5 critiques[35]).</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>The_Good_Place</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Good_Place</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+Le site Rotten Tomatoes a attribué une note de 8,79⁄10 (soit 100 % (sur 38 critiques).
+Le site Metacritic a donné une note de 96⁄100 (sur 5 critiques).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>The_Good_Place</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Good_Place</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Nominations
 2018 : 20e cérémonie des Teen Choice Awards
